--- a/DataAnalysisSheet.xlsx
+++ b/DataAnalysisSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\casestudy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB124FC2-50C9-4EF9-9CAD-76B8F4497A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,660 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
+  <si>
+    <t>Number of the sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the sample </t>
+  </si>
+  <si>
+    <t>Numbers of the Java classes</t>
+  </si>
+  <si>
+    <t>Imported packages in sample covered in the book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported Packages  not covered in the book </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Interfaces and inhertances usage </t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>JavaRansomware</t>
+  </si>
+  <si>
+    <t>java.util.*</t>
+  </si>
+  <si>
+    <t>java.io. *;
+java.lang.*
+java.sql. *
+java.util.*
+java.nio*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*;</t>
+  </si>
+  <si>
+    <t>javax.crypto.*;
+com.fasterxml.jackson.databind.ObjectMapper;
+org.apache.commons.codec.binary.Base64;</t>
+  </si>
+  <si>
+    <t>SLoker</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.net.URL;
+java.text.*
+java.util.*
+java.security.*</t>
+  </si>
+  <si>
+    <t>Android. *
+javax.crypto.Cipher;</t>
+  </si>
+  <si>
+    <t>This is a mobile app</t>
+  </si>
+  <si>
+    <t>PewCrypt</t>
+  </si>
+  <si>
+    <t>java.awt. *
+javax. swing.*
+java.io. *
+java.net*
+java.util.*
+java.nio. *
+java. security.*</t>
+  </si>
+  <si>
+    <t>javax.imageio
+javax.xml*
+javax.crypto.*</t>
+  </si>
+  <si>
+    <t>Ransomware</t>
+  </si>
+  <si>
+    <t>java.io. *
+java. security.*
+java.util.*
+java.nio. *
+javafx. scene.*
+javafx.application. *
+javafx. fxml.*
+javafx. stage.*
+java.net. *
+javafx. event.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.Cipher;
+org.apache.commons.io.FilenameUtils;
+javafx.concurrent.*</t>
+  </si>
+  <si>
+    <t>It is a tool not just a ransomware sample, thus it will be excluded from the study due to the complexity of its structure</t>
+  </si>
+  <si>
+    <t>AndroRW</t>
+  </si>
+  <si>
+    <t>java.io. *
+java.util.*</t>
+  </si>
+  <si>
+    <t>org.junit.Test;
+android.*
+javax.crypto.*</t>
+  </si>
+  <si>
+    <t>this is android app</t>
+  </si>
+  <si>
+    <t>Android-RansomWare</t>
+  </si>
+  <si>
+    <t>java.io.File;
+java.util.ArrayList;
+java.security.PublicKey;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">android.*
+org.junit.*
+javax.crypto.Cipher;
+com.google.gson.annotations.SerializedName;
+retrofit2.Retrofit;
+retrofit2.converter.gson.GsonConverterFactory;
+</t>
+  </si>
+  <si>
+    <t>java.awt.*
+java.io.*
+java.util.*
+java.security.*
+javax.swing.*
+java.net.URL;</t>
+  </si>
+  <si>
+    <t>android.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.Cipher;</t>
+  </si>
+  <si>
+    <t>android.*
+javax.crypto.Cipher;</t>
+  </si>
+  <si>
+    <t>java.awt.*
+ java.io.*
+ java.util.*
+ java.security.*
+ javax.swing.*
+ java.net.*</t>
+  </si>
+  <si>
+    <t>Droidefense Engine is an Advance Android Malware Analysis Framework. Thus, it will be excluded from the study.</t>
+  </si>
+  <si>
+    <t>Teardroid-phprat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.io.*
+java.security.*
+java.util.*
+java.net.*
+</t>
+  </si>
+  <si>
+    <t>android.*
+javax.crypto.*
+org.apache.http.HttpResponse;
+org.json.*</t>
+  </si>
+  <si>
+    <t>ransomware_simulation</t>
+  </si>
+  <si>
+    <t>java.security.*;
+java.io.*
+java.util.*
+java.math.*
+java.awt.*
+javax.swing.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*
+org.apache.commons.io.FileUtils;</t>
+  </si>
+  <si>
+    <t>Ransomware-Experiment</t>
+  </si>
+  <si>
+    <t>java.io. *
+ java.security.*
+ java.util.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*</t>
+  </si>
+  <si>
+    <t>Capricorn</t>
+  </si>
+  <si>
+    <t>java.io.File;
+ java.util.ArrayList;
+ java.nio.file.Path;
+ java.security.SecureRandom;
+ java.text.*</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>RansomwareProject</t>
+  </si>
+  <si>
+    <t>java.util.Optional;
+java.security.NoSuchAlgorithmException;</t>
+  </si>
+  <si>
+    <t>javax.inject.Inject;
+org.springframework.stereotype.Component;
+javax.crypto.SecretKey;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It uses spring framework </t>
+  </si>
+  <si>
+    <t>Ransomware-Android</t>
+  </si>
+  <si>
+    <t>java.io.*;
+ java.lang.*
+ java.util.*</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>It is android app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It is android app</t>
+  </si>
+  <si>
+    <t>jWARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.security.*
+ java.io.*
+ java.util.*
+ java.net.*
+</t>
+  </si>
+  <si>
+    <t>This project was developed by Bill Demirkapi and is available under the MIT License</t>
+  </si>
+  <si>
+    <t>HashEncryptian-Ransomware</t>
+  </si>
+  <si>
+    <t>java.io.*
+ javafx.application.*
+ javafx.scene.*
+ javafx.stage.*
+ java.math.*
+ java.security.*
+ java.util.*
+ javafx.fxml.*</t>
+  </si>
+  <si>
+    <t>JavaLocker-Ransomware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  java.io.*
+  java.security.*
+  java.util.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  javax. crypto.*</t>
+  </si>
+  <si>
+    <t>java.io.*
+ java.security.*
+ java.util.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*
+org.apache.commons.codec.binary.Base64;</t>
+  </si>
+  <si>
+    <t>java.io.*;
+ java.util.*;
+ java.security.*;
+ java.nio.*;
+ java.net.*;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+javax.crypto.*</t>
+  </si>
+  <si>
+    <t>RansomwareTermProject</t>
+  </si>
+  <si>
+    <t>android.*
+org.junit.Test;</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.net.*
+java.nio.*java.security.*
+java.util.*
+javax.swing.*;
+java.awt.*;</t>
+  </si>
+  <si>
+    <t>java.io.*;
+java.util.*
+java.nio.*
+java.security.*
+java.sql.*
+java.lang.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+com.fasterxml.jackson.databind.ObjectMapper;
+ org.apache.commons.io.FilenameUtils;</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.security.*
+java.util.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.io.*
+java.security.*
+java.util.*
+javafx.application.*
+javafx.event.*
+javafx.geometry.*
+javafx.scene.*
+javafx.stage.*
+</t>
+  </si>
+  <si>
+    <t>java.awt.*;
+javax.swing.*;
+java.util.*;
+java.io.File;</t>
+  </si>
+  <si>
+    <t>java.io.*
+ java.security.*
+ java.util.*
+ javafx.application.*
+ javafx.event.*
+ javafx.scene.*
+ javafx.stage.*</t>
+  </si>
+  <si>
+    <t>jtears</t>
+  </si>
+  <si>
+    <t>java.util.*
+ java.io.*
+ java.lang.*
+ java.security.*</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger;
+ javax.crypto.Cipher;
+ org.junit.Test;</t>
+  </si>
+  <si>
+    <t>cry-decryptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this is android application </t>
+  </si>
+  <si>
+    <t>Ransomware-Detection</t>
+  </si>
+  <si>
+    <t>android.*
+static org.junit.Assert.*;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this is android application</t>
+  </si>
+  <si>
+    <t>AndroidRansomware</t>
+  </si>
+  <si>
+    <t>java.security.*</t>
+  </si>
+  <si>
+    <t>android.*
+javax.crypto.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+this is android app</t>
+  </si>
+  <si>
+    <t>java.io.*;
+java.lang.*
+java.security.*;
+java.sql.*
+java.util.*
+java.nio.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+javax.crypto.*;
+junit.framework.*</t>
+  </si>
+  <si>
+    <t>Crypto-Ransomware</t>
+  </si>
+  <si>
+    <t>java.util.*
+java.io.*
+java.net.*
+java.security.*</t>
+  </si>
+  <si>
+    <t>javax.swing.*;
+ java.io.*;
+ java.lang.*
+ java.security.*;
+ java.sql.*
+ java.util.*
+ java.nio.*</t>
+  </si>
+  <si>
+    <t>visor_ransomware</t>
+  </si>
+  <si>
+    <t>java.util.*
+ java.io.*
+ javax.swing.*</t>
+  </si>
+  <si>
+    <t>CryptICCN</t>
+  </si>
+  <si>
+    <t>java.security.*
+ java.awt.*
+ java.io.*
+ java.nio.*
+ java.util.*
+ javax.swing.*</t>
+  </si>
+  <si>
+    <t>InstaCrypt</t>
+  </si>
+  <si>
+    <t>java.util.*
+ java.io.File;
+ java.nio.*
+ java.security.*
+ java.awt.*
+ javax.swing.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*
+javax.imageio*
+javax.xml.*</t>
+  </si>
+  <si>
+    <t>GoodX</t>
+  </si>
+  <si>
+    <t>javax.swing.*
+ java.io.*;
+ java.security.*</t>
+  </si>
+  <si>
+    <t>Android-Raansomware-Demo</t>
+  </si>
+  <si>
+    <t>java.io.*
+ java.util.*</t>
+  </si>
+  <si>
+    <t>android.*
+ org.junit..*
+ javax.crypto.*</t>
+  </si>
+  <si>
+    <t>This is android app</t>
+  </si>
+  <si>
+    <t>Ransomware-gasa-Virus</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.net.*
+java.util.*
+java.awt.*
+javax.swing.*
+java.net.*</t>
+  </si>
+  <si>
+    <t>javax.mail.*</t>
+  </si>
+  <si>
+    <t>Ransomware-crowdSource</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.util.*
+java.net.*
+java.text.*</t>
+  </si>
+  <si>
+    <t>android.*
+ org.json.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This is mobile app</t>
+  </si>
+  <si>
+    <t>Android-Ransomware-aap</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.util.*
+java.security.*</t>
+  </si>
+  <si>
+    <t>android.*
+javax.crypto.*
+org.junit.*</t>
+  </si>
+  <si>
+    <t>Android-Ransomware-New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This sample is a duplicated version of sample 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jransomeware </t>
+  </si>
+  <si>
+    <t>java.io.*
+java.security.*
+javafx.scene.*
+java.lang.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*
+sun.lwawt.macosx.CSystemTray;</t>
+  </si>
+  <si>
+    <t>JavaWare-1.0</t>
+  </si>
+  <si>
+    <t>java.io.*
+ java.util.*
+ javafx.application.*
+ java.nio.*
+ javafx.event.*
+ javafx.geometry.*
+ javafx.scene.*
+ javafx.stage.*</t>
+  </si>
+  <si>
+    <t>CryptoJammer-client</t>
+  </si>
+  <si>
+    <t>java.io.File;
+java.nio.*
+java.security.*
+java.util.*
+java.net.*
+java.math.*
+javax.swing.*</t>
+  </si>
+  <si>
+    <t>javax.crypto.*
+org.json.JSONObject;</t>
+  </si>
+  <si>
+    <t>ransomoid</t>
+  </si>
+  <si>
+    <t>android.*
+org.json.JSONException;
+javax.crypto.*</t>
+  </si>
+  <si>
+    <t>HackerTyper</t>
+  </si>
+  <si>
+    <t>java.awt.*
+ java.io.*
+ java.util.*
+ javax.swing.*;</t>
+  </si>
+  <si>
+    <t>javax.imageio.*</t>
+  </si>
+  <si>
+    <t>Android-Encryption-File-Hijacking</t>
+  </si>
+  <si>
+    <t>android.*
+ org.junit.Test;
+ javax.crypto.Cipher;</t>
+  </si>
+  <si>
+    <t>grade12-RansomewareDemonstration</t>
+  </si>
+  <si>
+    <t>java.io.*
+java.util.*
+javax.swing.*
+java.net.*
+java.text.*</t>
+  </si>
+  <si>
+    <t>edu.uci.ics.matthes3.service.idm</t>
+  </si>
+  <si>
+    <t>java.util.*
+java.sql.*
+java.net.*
+java.io.*
+java.lang.*</t>
+  </si>
+  <si>
+    <t>javax.ws.rs.core.Response;
+javax.xml.ws.Service;
+javax.ws.rs.*;
+javax.crypto.*</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +685,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +739,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1066,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.1796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.08984375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="6">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="6">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="6">
+        <v>685</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="6">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="6">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="6">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="6">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="6">
+        <v>9</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="6">
+        <v>8</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>50</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="6">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>51</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="6">
+        <v>18</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="6">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>52</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>53</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="6">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="6">
+        <v>19</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>54</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>55</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="6">
+        <v>39</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>